--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4119581.56118294</v>
+        <v>4192956.85016903</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051495</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7368670.424756989</v>
+        <v>7270392.64980433</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>47.93792996527441</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>283.7800869700859</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -820,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>99.90187484148903</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>15.95727827007489</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>100.9906203800859</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>85.62559213935963</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>32.19046171692377</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>130.7621952949255</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>5.983388191319386</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>105.0880569100042</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>110.4502061272576</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>279.7418908107066</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1540,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>110.0251664512551</v>
+        <v>75.7338358761626</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>53.71954183277991</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>88.1188343959177</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>139.1537278750036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>67.61524188852295</v>
+        <v>25.46114816159251</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2476,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>27.28902510979876</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>27.5645644084701</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2713,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>122.9684277897099</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>156.9509569267188</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>100.6516248850134</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539629</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>24.82250791092452</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689871</v>
+        <v>31.60209166360542</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857162</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692843</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329051</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373686</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463124</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415205</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539649</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287485</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689366</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593964</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689871</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857162</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692843</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329051</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373922</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463124</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415205</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539625</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287485</v>
+        <v>194.7880737864211</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689366</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593964</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689871</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857162</v>
+        <v>115.9114413896588</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692843</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329287</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373686</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789539</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463124</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415205</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539625</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287485</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689366</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593964</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>91.79970833600336</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>36.74571320013094</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2198.886095354873</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2198.886095354873</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2198.886095354873</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="X2" t="n">
-        <v>2198.886095354873</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.746763379062</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,19 +4412,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247.5125998356232</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="C4" t="n">
-        <v>247.5125998356232</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4515,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>468.3051789791533</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>468.3051789791533</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V4" t="n">
-        <v>468.3051789791533</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="W4" t="n">
-        <v>468.3051789791533</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="X4" t="n">
-        <v>468.3051789791533</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="Y4" t="n">
-        <v>247.5125998356232</v>
+        <v>154.8539665087372</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1739.654191907093</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="C5" t="n">
-        <v>1370.691674966682</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>1370.691674966682</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>984.9034223684375</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>573.91751757883</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>155.9537094770169</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>155.9537094770169</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2434.481106221928</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2103.418218878357</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>1750.649563608243</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.654191907093</v>
+        <v>1377.183805347164</v>
       </c>
       <c r="Y5" t="n">
-        <v>1739.654191907093</v>
+        <v>1377.183805347164</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>566.6290395096265</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="C7" t="n">
-        <v>566.6290395096265</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D7" t="n">
-        <v>416.5124000972908</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>566.6290395096265</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>566.6290395096265</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>566.6290395096265</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>566.6290395096265</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y7" t="n">
-        <v>566.6290395096265</v>
+        <v>280.0282177315058</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685519</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>80.85571308685519</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>73.91021233765171</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>59.98680827624262</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>59.98680827624262</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2535.970849114368</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2317.336182086431</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2317.336182086431</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2317.336182086431</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>323.257219162842</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>323.257219162842</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>323.257219162842</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>323.257219162842</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>323.257219162842</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782189</v>
+        <v>323.257219162842</v>
       </c>
       <c r="W10" t="n">
-        <v>201.8560754027576</v>
+        <v>323.257219162842</v>
       </c>
       <c r="X10" t="n">
-        <v>201.8560754027576</v>
+        <v>323.257219162842</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>323.257219162842</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5032,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5124,19 +5126,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>1651.324348736746</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O12" t="n">
-        <v>2320.788110039405</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
         <v>2612.943493278838</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.3285960683721</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W13" t="n">
-        <v>955.1031435655738</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X13" t="n">
-        <v>727.1135926675564</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="Y13" t="n">
-        <v>615.9770608986119</v>
+        <v>598.2197476704891</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5357,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1427.741252113634</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>581.3058073983079</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>581.3058073983079</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>581.3058073983079</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5513,16 +5515,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3540.192194764783</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>4081.182609697671</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>4360.722674916368</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>3907.603135363461</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>3907.603135363461</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>3757.486495951126</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>4571.925639297605</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>4571.925639297605</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>4317.241151091718</v>
       </c>
       <c r="W19" t="n">
-        <v>465.7659634441654</v>
+        <v>4317.241151091718</v>
       </c>
       <c r="X19" t="n">
-        <v>237.776412546148</v>
+        <v>4089.251600193701</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>4089.251600193701</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5734,40 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1430.618046428081</v>
+        <v>1162.202825558924</v>
       </c>
       <c r="U22" t="n">
-        <v>1430.618046428081</v>
+        <v>873.0741867724822</v>
       </c>
       <c r="V22" t="n">
-        <v>1430.618046428081</v>
+        <v>618.3896985665954</v>
       </c>
       <c r="W22" t="n">
-        <v>1141.200876391121</v>
+        <v>618.3896985665954</v>
       </c>
       <c r="X22" t="n">
-        <v>1141.200876391121</v>
+        <v>390.400147668578</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.200876391121</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>181.9314425141218</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>592.8217113586345</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>503.5547239186418</v>
+        <v>4232.372748641141</v>
       </c>
       <c r="C25" t="n">
-        <v>503.5547239186418</v>
+        <v>4063.436565713234</v>
       </c>
       <c r="D25" t="n">
-        <v>503.5547239186418</v>
+        <v>3913.319926300898</v>
       </c>
       <c r="E25" t="n">
-        <v>355.6416303362487</v>
+        <v>3913.319926300898</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>3766.429978802988</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>3598.254657122809</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>1471.073276205912</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S25" t="n">
-        <v>1271.153266121465</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T25" t="n">
-        <v>1047.36785091097</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="U25" t="n">
-        <v>758.2392121245286</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="V25" t="n">
-        <v>503.5547239186418</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="W25" t="n">
-        <v>503.5547239186418</v>
+        <v>4460.362299539158</v>
       </c>
       <c r="X25" t="n">
-        <v>503.5547239186418</v>
+        <v>4232.372748641141</v>
       </c>
       <c r="Y25" t="n">
-        <v>503.5547239186418</v>
+        <v>4232.372748641141</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6205,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6227,16 +6229,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,22 +6253,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555215</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1096.475226584133</v>
+        <v>662.0910440466406</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>662.0910440466406</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>662.0910440466406</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>514.1779504642475</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>367.2880029663371</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="X28" t="n">
-        <v>1498.916270557902</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="Y28" t="n">
-        <v>1278.123691414372</v>
+        <v>843.7395088768803</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6445,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6552,7 +6554,7 @@
         <v>841.863114014129</v>
       </c>
       <c r="N30" t="n">
-        <v>1171.725741678162</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
         <v>1808.163466324677</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108331</v>
+        <v>3969.364880169633</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229672</v>
+        <v>3969.364880169633</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>3819.248240757297</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083205</v>
+        <v>3819.248240757297</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>3672.358293259387</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>3672.358293259387</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649692</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045207</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010317</v>
+        <v>4151.013344999873</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6688,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6725,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6780,25 +6782,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>857.5427825698952</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>822.1480540508779</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,13 +6937,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6971,7 +6973,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -7017,22 +7019,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N36" t="n">
-        <v>1632.773754790662</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O36" t="n">
-        <v>2302.237516093321</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2379.156885434021</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108325</v>
+        <v>426.1449830812445</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649695</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116389</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942115</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771662</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025261</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>874.927113122792</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>646.9375622247746</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>426.1449830812445</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7172,19 +7174,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108349</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229691</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506745</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083226</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504534</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116389</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986524</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1302.160640470608</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025264</v>
+        <v>1302.160640470608</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859418</v>
+        <v>1302.160640470608</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862499</v>
+        <v>1302.160640470608</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045224</v>
+        <v>1074.171089572591</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010335</v>
+        <v>853.378510429061</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.417155020476</v>
+        <v>3128.721707800139</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>3436.041841080101</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>3765.904468744134</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108349</v>
+        <v>364.7173639423009</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229691</v>
+        <v>364.7173639423009</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506745</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083226</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649695</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116389</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986524</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025264</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859418</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862499</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045224</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010335</v>
+        <v>364.7173639423009</v>
       </c>
     </row>
     <row r="44">
@@ -7628,31 +7630,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822461</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7667,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7725,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>245.130185042679</v>
+        <v>785.4801130615101</v>
       </c>
       <c r="C46" t="n">
-        <v>245.130185042679</v>
+        <v>616.5439301336032</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>1238.013973327074</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>983.329485121187</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W46" t="n">
-        <v>693.9123150842264</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X46" t="n">
-        <v>465.9227641862091</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y46" t="n">
-        <v>245.130185042679</v>
+        <v>967.1285778917498</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8772,22 +8774,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>18.73797368291349</v>
+        <v>297.3877236703352</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9015,10 +9017,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>297.2466435761025</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>104.6241510367947</v>
       </c>
       <c r="N18" t="n">
-        <v>213.2603911806615</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>94.13752431970619</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>43.65987261462463</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9729,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>199.7396287231153</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10200,10 +10202,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="O30" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10367,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10428,28 +10430,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>85.30006332127817</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>29.47535963978262</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>158.8724419039329</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>180.0237016735871</v>
+        <v>234.4116509503158</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11382,22 +11384,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>274.3657496970648</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23428,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>108.5594869008397</v>
+        <v>142.8508174759322</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>113.5272792658479</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>133.4287266624715</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>79.43092547709122</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>153.9323191698663</v>
+        <v>196.0864128967967</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>121.6248032577374</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>82.3997879953227</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>44.27839330891796</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>9.542611536658825</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24658,16 +24660,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>48.26220348252272</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>193.7621454411703</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>135.6447294350224</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>26.75948727196811</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>32.70403162855355</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>56.81576468220899</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>249.4916391984464</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>620352.9185243121</v>
+        <v>620352.918524312</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620352.9185243121</v>
+        <v>620352.9185243122</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>620352.9185243121</v>
+        <v>620352.9185243122</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>650565.2475756831</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>650565.2475756831</v>
+        <v>620352.9185243122</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>650565.2475756831</v>
+        <v>620352.9185243122</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>650565.2475756831</v>
+        <v>620352.9185243122</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>650565.2475756831</v>
+        <v>620352.9185243122</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>620352.9185243121</v>
+        <v>620352.9185243122</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176763</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176762</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176764</v>
-      </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="F2" t="n">
         <v>762506.6664885323</v>
       </c>
       <c r="G2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="H2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="I2" t="n">
+        <v>762506.6664885327</v>
+      </c>
+      <c r="J2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="K2" t="n">
         <v>762506.6664885326</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>762506.6664885322</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>762506.6664885326</v>
       </c>
-      <c r="J2" t="n">
-        <v>762506.6664885326</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800515.7256176765</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176766</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176767</v>
-      </c>
       <c r="N2" t="n">
-        <v>800515.7256176767</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176766</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885323</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26442,22 +26444,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>37464.45686275959</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275958</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.4568627596</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275961</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.4568627596</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29086.18991150032</v>
+        <v>-29086.18991150023</v>
       </c>
       <c r="C6" t="n">
-        <v>560881.6893030443</v>
+        <v>560881.6893030441</v>
       </c>
       <c r="D6" t="n">
-        <v>560881.6893030443</v>
+        <v>560881.6893030442</v>
       </c>
       <c r="E6" t="n">
-        <v>130313.6344414806</v>
+        <v>130313.6344414809</v>
       </c>
       <c r="F6" t="n">
         <v>655473.6709183767</v>
       </c>
       <c r="G6" t="n">
+        <v>655473.6709183767</v>
+      </c>
+      <c r="H6" t="n">
+        <v>655473.6709183768</v>
+      </c>
+      <c r="I6" t="n">
+        <v>655473.670918377</v>
+      </c>
+      <c r="J6" t="n">
+        <v>479050.4517257839</v>
+      </c>
+      <c r="K6" t="n">
         <v>655473.6709183769</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>655473.6709183765</v>
       </c>
-      <c r="I6" t="n">
-        <v>655473.6709183769</v>
-      </c>
-      <c r="J6" t="n">
-        <v>479050.451725784</v>
-      </c>
-      <c r="K6" t="n">
-        <v>610830.650831179</v>
-      </c>
-      <c r="L6" t="n">
-        <v>665336.1629348916</v>
-      </c>
       <c r="M6" t="n">
-        <v>530535.1477010546</v>
+        <v>520672.6556845397</v>
       </c>
       <c r="N6" t="n">
-        <v>665336.1629348918</v>
+        <v>655473.6709183767</v>
       </c>
       <c r="O6" t="n">
-        <v>665336.1629348916</v>
+        <v>655473.6709183768</v>
       </c>
       <c r="P6" t="n">
-        <v>655473.6709183769</v>
+        <v>655473.6709183767</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,13 +26749,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26771,13 +26773,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>203.2862375430149</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>65.46088174732711</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>48.71359817672332</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,16 +27587,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>209.0778271880094</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>50.94069586477534</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>165.5985753689297</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0563593817041</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>155.5196789470522</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>145.9479280535419</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>69.32765589896732</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>35.98375651931153</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>6.781107525884352</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>351.9325470809263</v>
+        <v>630.582297068348</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>10.73738595686864</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>630.4412169741155</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>415.0485280872609</v>
       </c>
       <c r="N18" t="n">
-        <v>546.4549645786744</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>427.332097717719</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>85.57005156953132</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
@@ -36449,13 +36451,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>482.1033309642235</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36689,10 +36691,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36920,10 +36922,10 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>693.6972596887384</v>
       </c>
       <c r="O30" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37087,7 +37089,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R32" t="n">
         <v>59.8253897034981</v>
@@ -37148,28 +37150,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>326.2624260966948</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37397,13 +37399,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>246.8854746890071</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520627</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095693</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086133</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352444</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520627</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095693</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086133</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>429.2814066296115</v>
+        <v>483.6693559063401</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520627</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095693</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086133</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352444</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38102,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>584.790126747531</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4192956.85016903</v>
+        <v>4185939.835277316</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>43.53636164073672</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>283.7800869700859</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>99.90187484148903</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>222.2493616546457</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>85.62559213935963</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>32.19046171692377</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>33.84234274505293</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>44.94159105703854</v>
       </c>
       <c r="S8" t="n">
-        <v>105.0880569100042</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>110.4502061272576</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.60408762095435</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274063</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784678</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>122.3137095599304</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.7338358761626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>53.71954183277991</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>189.9442212598105</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>88.1188343959177</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>25.46114816159251</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>27.28902510979876</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>199.8217265445601</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>156.9509569267188</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>100.6516248850134</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.82250791092452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>31.60209166360542</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>194.7880737864211</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>58.40168825977475</v>
       </c>
       <c r="D43" t="n">
-        <v>115.9114413896588</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>91.79970833600336</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>2355.473849053679</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1982.008090792599</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>1591.868758816787</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="3">
@@ -4412,16 +4412,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.8539665087372</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>154.8539665087372</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>154.8539665087372</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>154.8539665087372</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>154.8539665087372</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>154.8539665087372</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>990.5839652830418</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830418</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>1170.083887280542</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>1170.083887280542</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>759.0979824909343</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2434.481106221928</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2103.418218878357</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1750.649563608243</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1377.183805347164</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1377.183805347164</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,46 +4649,46 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>280.0282177315058</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="C7" t="n">
-        <v>247.5125998356232</v>
+        <v>88.12716641132701</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>500.820796875036</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>280.0282177315058</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2651.753544495961</v>
       </c>
       <c r="S8" t="n">
-        <v>2535.970849114368</v>
+        <v>2475.576056810131</v>
       </c>
       <c r="T8" t="n">
-        <v>2317.336182086431</v>
+        <v>2475.576056810131</v>
       </c>
       <c r="U8" t="n">
-        <v>2317.336182086431</v>
+        <v>2475.576056810131</v>
       </c>
       <c r="V8" t="n">
-        <v>2317.336182086431</v>
+        <v>2475.576056810131</v>
       </c>
       <c r="W8" t="n">
-        <v>1964.567526816317</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>323.257219162842</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>323.257219162842</v>
+        <v>529.7758821321495</v>
       </c>
       <c r="D10" t="n">
-        <v>323.257219162842</v>
+        <v>379.6592427198137</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>231.7461491374206</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942403</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942403</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>323.257219162842</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>323.257219162842</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>323.257219162842</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>323.257219162842</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>323.257219162842</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>323.257219162842</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,28 +5059,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590536</v>
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256433</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.777852827703</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341668</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N12" t="n">
-        <v>1833.271529962218</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.5712828402495</v>
+        <v>665.6859735286123</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>665.6859735286123</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>515.5693341162765</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>367.6562405338834</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>220.7662930359731</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>964.1357418247858</v>
+        <v>955.1031435655729</v>
       </c>
       <c r="W13" t="n">
-        <v>674.7185717878251</v>
+        <v>665.6859735286123</v>
       </c>
       <c r="X13" t="n">
-        <v>674.7185717878251</v>
+        <v>665.6859735286123</v>
       </c>
       <c r="Y13" t="n">
-        <v>598.2197476704891</v>
+        <v>665.6859735286123</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5305,10 +5305,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5360,19 +5360,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>581.3058073983079</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C16" t="n">
-        <v>527.0436439308535</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185177</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>883.3479955055759</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.712528333286</v>
+        <v>883.3479955055759</v>
       </c>
       <c r="W16" t="n">
-        <v>809.2953582963253</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="X16" t="n">
-        <v>581.3058073983079</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="Y16" t="n">
-        <v>581.3058073983079</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5597,16 +5597,16 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3907.603135363461</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>3907.603135363461</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>3757.486495951126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>4571.925639297605</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>4571.925639297605</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>4317.241151091718</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>4317.241151091718</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>4089.251600193701</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>4089.251600193701</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1162.202825558924</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>873.0741867724822</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>618.3896985665954</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>618.3896985665954</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>390.400147668578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>390.400147668578</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5980,34 +5980,34 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4232.372748641141</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>4063.436565713234</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3913.319926300898</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3913.319926300898</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3766.429978802988</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3598.254657122809</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>4749.779469576119</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W25" t="n">
-        <v>4460.362299539158</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X25" t="n">
-        <v>4232.372748641141</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y25" t="n">
-        <v>4232.372748641141</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
@@ -6226,37 +6226,37 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>662.0910440466406</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>662.0910440466406</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>662.0910440466406</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>514.1779504642475</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>367.2880029663371</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>1133.156678913841</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W28" t="n">
-        <v>843.7395088768803</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X28" t="n">
-        <v>843.7395088768803</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>843.7395088768803</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,28 +6448,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3969.364880169633</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C31" t="n">
-        <v>3969.364880169633</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>3819.248240757297</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>3819.248240757297</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>3672.358293259387</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>3672.358293259387</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929845</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>4371.805924143403</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
-        <v>4371.805924143403</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W31" t="n">
-        <v>4371.805924143403</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X31" t="n">
-        <v>4371.805924143403</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y31" t="n">
-        <v>4151.013344999873</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6724,13 +6724,13 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>1075.21084526296</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W34" t="n">
-        <v>1075.21084526296</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X34" t="n">
-        <v>847.2212943649431</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6925,25 +6925,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6952,31 +6952,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1894.594339433115</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2174.134404651812</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2379.156885434021</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>426.1449830812445</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>874.927113122792</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>874.927113122792</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>874.927113122792</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>646.9375622247746</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>426.1449830812445</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1302.160640470608</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1302.160640470608</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1302.160640470608</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>1302.160640470608</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1074.171089572591</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y40" t="n">
-        <v>853.378510429061</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,34 +7405,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2649.889045452863</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>3128.721707800139</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>3436.041841080101</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>3765.904468744134</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>364.7173639423009</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C43" t="n">
-        <v>364.7173639423009</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>874.9271131227918</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V43" t="n">
-        <v>874.9271131227918</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W43" t="n">
-        <v>585.5099430858311</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X43" t="n">
-        <v>585.5099430858311</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y43" t="n">
-        <v>364.7173639423009</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1113.485206214223</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1443.347833878256</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>785.4801130615101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>616.5439301336032</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1187.92115703528</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1187.92115703528</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>967.1285778917498</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8774,13 +8774,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>297.3877236703352</v>
+        <v>423.3376789165137</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445224</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,13 +9014,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N15" t="n">
-        <v>29.47535963978225</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>104.6241510367947</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>297.2466435761029</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>94.13752431970619</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>253.7371603504737</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>85.30006332127817</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.8724419039329</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>124.3400780863232</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>234.4116509503158</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11375,25 +11375,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>274.3657496970648</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>44.17985890344721</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.8508174759322</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>113.5272792658479</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>96.29313113876688</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23943,16 +23943,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.4287266624715</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>196.0864128967967</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>121.6248032577374</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>52.31591677926792</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>9.542611536658825</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>48.26220348252272</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y34" t="n">
-        <v>193.7621454411703</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6447294350224</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>26.75948727196811</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>108.8451328388531</v>
       </c>
       <c r="D43" t="n">
-        <v>32.70403162855355</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>56.81576468220899</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>620352.918524312</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.918524312</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.725617676</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176763</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>800515.7256176762</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176763</v>
-      </c>
       <c r="E2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="F2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="G2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="H2" t="n">
         <v>762506.6664885323</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>762506.6664885323</v>
       </c>
-      <c r="H2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="I2" t="n">
-        <v>762506.6664885327</v>
-      </c>
       <c r="J2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="K2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="L2" t="n">
         <v>762506.6664885322</v>
       </c>
       <c r="M2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="N2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="O2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.998865167886834e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.6696214392</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143917</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26441,25 +26441,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29086.18991150023</v>
+        <v>-29086.18991150046</v>
       </c>
       <c r="C6" t="n">
+        <v>560881.6893030442</v>
+      </c>
+      <c r="D6" t="n">
         <v>560881.6893030441</v>
       </c>
-      <c r="D6" t="n">
-        <v>560881.6893030442</v>
-      </c>
       <c r="E6" t="n">
-        <v>130313.6344414809</v>
+        <v>129339.0431817592</v>
       </c>
       <c r="F6" t="n">
-        <v>655473.6709183767</v>
+        <v>654499.0796586544</v>
       </c>
       <c r="G6" t="n">
-        <v>655473.6709183767</v>
+        <v>654499.0796586551</v>
       </c>
       <c r="H6" t="n">
-        <v>655473.6709183768</v>
+        <v>654499.0796586551</v>
       </c>
       <c r="I6" t="n">
-        <v>655473.670918377</v>
+        <v>654499.0796586549</v>
       </c>
       <c r="J6" t="n">
-        <v>479050.4517257839</v>
+        <v>478075.860466062</v>
       </c>
       <c r="K6" t="n">
-        <v>655473.6709183769</v>
+        <v>654499.0796586548</v>
       </c>
       <c r="L6" t="n">
-        <v>655473.6709183765</v>
+        <v>654499.0796586549</v>
       </c>
       <c r="M6" t="n">
-        <v>520672.6556845397</v>
+        <v>519698.0644248177</v>
       </c>
       <c r="N6" t="n">
-        <v>655473.6709183767</v>
+        <v>654499.0796586549</v>
       </c>
       <c r="O6" t="n">
-        <v>655473.6709183768</v>
+        <v>654499.0796586549</v>
       </c>
       <c r="P6" t="n">
-        <v>655473.6709183767</v>
+        <v>654499.0796586549</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26743,13 +26743,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540997</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26758,28 +26758,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26816,7 +26816,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370131</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499017</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>321.7365301302708</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27438,16 +27438,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>65.46088174732711</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>48.71359817672332</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27593,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>191.5348083661493</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>165.5985753689297</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>135.0563593817041</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>114.7731302731594</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>9.536811517773153</v>
       </c>
       <c r="S8" t="n">
-        <v>69.32765589896732</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>35.98375651931153</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>14.59587156758264</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.221312706140201e-12</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28380,22 +28380,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
     </row>
     <row r="15">
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358982</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724843</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349796</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490657</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.257704956024</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004659</v>
       </c>
       <c r="N12" t="n">
-        <v>630.582297068348</v>
+        <v>756.5322523145263</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411079</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507396</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N15" t="n">
-        <v>362.6699330377951</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>415.0485280872609</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>630.4412169741157</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>427.332097717719</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>10.73738595686864</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>460.8305752819984</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>693.6972596887384</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>367.6637655623863</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q36" t="n">
-        <v>246.8854746890071</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>483.6693559063401</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>584.790126747531</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4185939.835277316</v>
+        <v>4190879.098126348</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800624</v>
       </c>
     </row>
     <row r="8">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>43.53636164073672</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>143.4822953483835</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>222.2493616546457</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>134.8122206876835</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>33.84234274505293</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>44.94159105703854</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>47.50320101340354</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.60408762095435</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274063</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784678</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014448</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>122.3137095599304</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1821,7 +1821,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>189.9442212598105</v>
+        <v>145.8998232290783</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>199.8217265445601</v>
+        <v>17.93106827885208</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2769,7 +2769,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2845,7 +2845,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>5.107731335946075</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498001</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>204.1291651532053</v>
+        <v>146.1854691670921</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>58.40168825977475</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>21.09185147932092</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>26.9744467395492</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151922</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1639.851790143458</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1027.824306174799</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1027.824306174799</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>616.8384013851912</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>198.8745932833781</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>198.8745932833781</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.851790143458</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4424,10 +4424,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.349585887292</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C5" t="n">
-        <v>1528.349585887292</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="D5" t="n">
-        <v>1170.083887280542</v>
+        <v>1346.261374966372</v>
       </c>
       <c r="E5" t="n">
-        <v>1170.083887280542</v>
+        <v>1346.261374966372</v>
       </c>
       <c r="F5" t="n">
-        <v>759.0979824909343</v>
+        <v>935.2754701767642</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>517.3116620749511</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>190.1169421109539</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,13 +4573,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1528.349585887292</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y5" t="n">
-        <v>1528.349585887292</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.0633493392339</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>88.12716641132701</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694736</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2651.753544495961</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2475.576056810131</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="T8" t="n">
-        <v>2475.576056810131</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="U8" t="n">
-        <v>2475.576056810131</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="V8" t="n">
-        <v>2475.576056810131</v>
+        <v>2318.103172347981</v>
       </c>
       <c r="W8" t="n">
-        <v>2122.807401540017</v>
+        <v>1965.334517077867</v>
       </c>
       <c r="X8" t="n">
-        <v>1749.341643278937</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.341643278937</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321495</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D10" t="n">
-        <v>379.6592427198137</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E10" t="n">
-        <v>231.7461491374206</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F10" t="n">
-        <v>84.85620163951026</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G10" t="n">
-        <v>84.85620163951026</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="H10" t="n">
-        <v>84.85620163951026</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>84.85620163951026</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5032,61 +5032,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256433</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.777852827703</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341668</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126628</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>665.6859735286123</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C13" t="n">
-        <v>665.6859735286123</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D13" t="n">
-        <v>515.5693341162765</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>367.6562405338834</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>220.7662930359731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557901</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655729</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286123</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286123</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y13" t="n">
-        <v>665.6859735286123</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5305,10 +5305,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5360,19 +5360,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653858</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>883.3479955055759</v>
+        <v>816.762183007535</v>
       </c>
       <c r="V16" t="n">
-        <v>883.3479955055759</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W16" t="n">
-        <v>593.9308254686154</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X16" t="n">
-        <v>593.9308254686154</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y16" t="n">
-        <v>593.9308254686154</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="17">
@@ -5515,16 +5515,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5603,7 +5603,7 @@
         <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1427.741252113633</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5743,10 +5743,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028562</v>
@@ -5755,7 +5755,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5937,19 +5937,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5980,10 +5980,10 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,22 +5992,22 @@
         <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V25" t="n">
-        <v>1186.00103929694</v>
+        <v>1480.804080377244</v>
       </c>
       <c r="W25" t="n">
-        <v>896.5838692599799</v>
+        <v>1191.386910340284</v>
       </c>
       <c r="X25" t="n">
-        <v>668.5943183619626</v>
+        <v>963.3973594422661</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184324</v>
+        <v>742.6047802987359</v>
       </c>
     </row>
     <row r="26">
@@ -6214,49 +6214,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823761</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514058</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6484,31 +6484,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126483</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
         <v>507.4972331799365</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1493.756945976139</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765191</v>
+        <v>980.8428919792032</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706323</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336716</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,19 +6767,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
         <v>674.428562457161</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
@@ -6900,10 +6900,10 @@
         <v>241.9805482336716</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,16 +6928,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6946,43 +6946,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,19 +7004,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
         <v>674.428562457161</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7183,19 +7183,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014291</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028583</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7435,13 +7435,13 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.384017443268</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>268.9400003965051</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352016</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150552</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170379</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735078</v>
+        <v>415.8299478944155</v>
       </c>
     </row>
     <row r="44">
@@ -7651,10 +7651,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515096</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165137</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445224</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229593</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>297.2466435761029</v>
+        <v>297.2466435761025</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720712</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.51353349283</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.51353349283</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>99.23385149845802</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>44.17985890344721</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>96.29313113876688</v>
+        <v>140.3375291694991</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24423,7 +24423,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>52.31591677926792</v>
+        <v>234.2065750449759</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>192.8130786476572</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338525</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>82.39383318338565</v>
+        <v>140.3375291694989</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>108.8451328388531</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>145.4017169840567</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>82.98990566424357</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338511</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620352.918524312</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="7">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176762</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176763</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176762</v>
-      </c>
       <c r="E2" t="n">
+        <v>762506.6664885326</v>
+      </c>
+      <c r="F2" t="n">
         <v>762506.6664885323</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>762506.6664885322</v>
       </c>
-      <c r="G2" t="n">
-        <v>762506.6664885324</v>
-      </c>
       <c r="H2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="I2" t="n">
         <v>762506.6664885323</v>
@@ -26355,7 +26355,7 @@
         <v>762506.6664885322</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885323</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>3.998865167886834e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>1.170374162029475e-10</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214392</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143917</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26444,13 +26444,13 @@
         <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143903</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="L4" t="n">
         <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143913</v>
       </c>
       <c r="N4" t="n">
         <v>15045.66962143909</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26502,13 +26502,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29086.18991150046</v>
+        <v>-29086.18991150038</v>
       </c>
       <c r="C6" t="n">
+        <v>560881.6893030441</v>
+      </c>
+      <c r="D6" t="n">
         <v>560881.6893030442</v>
       </c>
-      <c r="D6" t="n">
-        <v>560881.6893030441</v>
-      </c>
       <c r="E6" t="n">
-        <v>129339.0431817592</v>
+        <v>130216.1753155084</v>
       </c>
       <c r="F6" t="n">
-        <v>654499.0796586544</v>
+        <v>655376.2117924045</v>
       </c>
       <c r="G6" t="n">
-        <v>654499.0796586551</v>
+        <v>655376.2117924044</v>
       </c>
       <c r="H6" t="n">
-        <v>654499.0796586551</v>
+        <v>655376.2117924044</v>
       </c>
       <c r="I6" t="n">
-        <v>654499.0796586549</v>
+        <v>655376.2117924044</v>
       </c>
       <c r="J6" t="n">
-        <v>478075.860466062</v>
+        <v>478952.9925998115</v>
       </c>
       <c r="K6" t="n">
-        <v>654499.0796586548</v>
+        <v>655376.2117924043</v>
       </c>
       <c r="L6" t="n">
-        <v>654499.0796586549</v>
+        <v>655376.2117924044</v>
       </c>
       <c r="M6" t="n">
-        <v>519698.0644248177</v>
+        <v>520575.1965585671</v>
       </c>
       <c r="N6" t="n">
-        <v>654499.0796586549</v>
+        <v>655376.2117924044</v>
       </c>
       <c r="O6" t="n">
-        <v>654499.0796586549</v>
+        <v>655376.2117924044</v>
       </c>
       <c r="P6" t="n">
-        <v>654499.0796586549</v>
+        <v>655376.2117924045</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26740,19 +26740,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054540997</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26816,7 +26816,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370131</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>4.547473508864641e-13</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>321.7365301302708</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>8.449020896477748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>191.5348083661493</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>17.1190955571777</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>114.7731302731594</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>3.806844538051777</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>9.536811517773153</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>126.912511795568</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>125.566801220841</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>14.59587156758264</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.221312706140201e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28380,22 +28380,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.642805928361637e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-7.540296344202581e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961202</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041485</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304437</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565515</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540882</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946989</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104644</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4953007812706</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358982</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724843</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855523</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361485</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337665</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336899</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892241</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351809</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303327</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109069</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951468</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349796</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490657</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.257704956024</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004659</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145263</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411079</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507396</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187468</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734254</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415663</v>
@@ -35746,7 +35746,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>630.4412169741157</v>
+        <v>630.4412169741155</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415054</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
         <v>803.580930408112</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221093</v>
       </c>
       <c r="N35" t="n">
         <v>803.580930408112</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221093</v>
       </c>
       <c r="N38" t="n">
         <v>803.580930408112</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
         <v>803.580930408112</v>
